--- a/public/data/lime/lime_table_ethiopia.xlsx
+++ b/public/data/lime/lime_table_ethiopia.xlsx
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.63</v>
+        <v>0.19</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.79</v>
+        <v>0.61</v>
       </c>
       <c r="K4" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.29</v>
+        <v>1.18</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1720,16 +1720,16 @@
         <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>4.66</v>
+        <v>3.52</v>
       </c>
       <c r="E8" t="n">
-        <v>1.93</v>
+        <v>0.7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1738,16 +1738,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.42</v>
+        <v>3.17</v>
       </c>
       <c r="K8" t="n">
-        <v>1.35</v>
+        <v>0.29</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1879,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.59</v>
+        <v>2.48</v>
       </c>
       <c r="K11" t="n">
-        <v>0.73</v>
+        <v>0.01</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>0.85</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1955,16 +1955,16 @@
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>2.31</v>
+        <v>0.89</v>
       </c>
       <c r="E13" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.43</v>
+        <v>1.99</v>
       </c>
       <c r="K13" t="n">
-        <v>0.55</v>
+        <v>0.04</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>101</v>
       </c>
       <c r="D14" t="n">
-        <v>1.61</v>
+        <v>0.52</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38</v>
+        <v>0.98</v>
       </c>
       <c r="K14" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.42</v>
+        <v>0.71</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.54</v>
+        <v>0.79</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>108</v>
       </c>
       <c r="D20" t="n">
-        <v>2.48</v>
+        <v>1.54</v>
       </c>
       <c r="E20" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2302,16 +2302,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.39</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2331,16 +2331,16 @@
         <v>109</v>
       </c>
       <c r="D21" t="n">
-        <v>2.82</v>
+        <v>2.01</v>
       </c>
       <c r="E21" t="n">
-        <v>0.95</v>
+        <v>0.31</v>
       </c>
       <c r="F21" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2349,16 +2349,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.65</v>
+        <v>1.76</v>
       </c>
       <c r="K21" t="n">
-        <v>0.76</v>
+        <v>0.19</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2378,16 +2378,16 @@
         <v>110</v>
       </c>
       <c r="D22" t="n">
-        <v>3.58</v>
+        <v>2.66</v>
       </c>
       <c r="E22" t="n">
-        <v>1.26</v>
+        <v>0.4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.03</v>
+        <v>1.94</v>
       </c>
       <c r="K22" t="n">
-        <v>0.72</v>
+        <v>0.12</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2472,16 +2472,16 @@
         <v>113</v>
       </c>
       <c r="D24" t="n">
-        <v>3.01</v>
+        <v>2.05</v>
       </c>
       <c r="E24" t="n">
-        <v>0.64</v>
+        <v>0.16</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2490,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.96</v>
+        <v>0.69</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2519,16 +2519,16 @@
         <v>114</v>
       </c>
       <c r="D25" t="n">
-        <v>3.53</v>
+        <v>2.52</v>
       </c>
       <c r="E25" t="n">
-        <v>1.21</v>
+        <v>0.35</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2537,16 +2537,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.04</v>
+        <v>0.74</v>
       </c>
       <c r="K25" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>118</v>
       </c>
       <c r="D28" t="n">
-        <v>2.59</v>
+        <v>1.29</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2678,16 +2678,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.12</v>
+        <v>0.82</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2707,16 +2707,16 @@
         <v>119</v>
       </c>
       <c r="D29" t="n">
-        <v>2.29</v>
+        <v>1.33</v>
       </c>
       <c r="E29" t="n">
-        <v>0.93</v>
+        <v>0.33</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="G29" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2725,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.38</v>
+        <v>1.13</v>
       </c>
       <c r="K29" t="n">
-        <v>0.59</v>
+        <v>0.05</v>
       </c>
       <c r="L29" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>120</v>
       </c>
       <c r="D30" t="n">
-        <v>1.73</v>
+        <v>0.73</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.66</v>
+        <v>0.44</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>121</v>
       </c>
       <c r="D31" t="n">
-        <v>4.28</v>
+        <v>2.87</v>
       </c>
       <c r="E31" t="n">
-        <v>1.02</v>
+        <v>0.01</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2819,16 +2819,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.02</v>
+        <v>1.81</v>
       </c>
       <c r="K31" t="n">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>122</v>
       </c>
       <c r="D32" t="n">
-        <v>5.14</v>
+        <v>4.43</v>
       </c>
       <c r="E32" t="n">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="F32" t="n">
-        <v>0.98</v>
+        <v>0.26</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="K32" t="n">
-        <v>0.76</v>
+        <v>0.31</v>
       </c>
       <c r="L32" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="M32" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2895,16 +2895,16 @@
         <v>123</v>
       </c>
       <c r="D33" t="n">
-        <v>8.84</v>
+        <v>7.67</v>
       </c>
       <c r="E33" t="n">
-        <v>5.76</v>
+        <v>4.16</v>
       </c>
       <c r="F33" t="n">
-        <v>3.16</v>
+        <v>1.33</v>
       </c>
       <c r="G33" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2913,16 +2913,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>8.76</v>
+        <v>7.3</v>
       </c>
       <c r="K33" t="n">
-        <v>5.02</v>
+        <v>3.06</v>
       </c>
       <c r="L33" t="n">
-        <v>2.1</v>
+        <v>0.57</v>
       </c>
       <c r="M33" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2942,16 +2942,16 @@
         <v>124</v>
       </c>
       <c r="D34" t="n">
-        <v>5.95</v>
+        <v>5.11</v>
       </c>
       <c r="E34" t="n">
-        <v>3.83</v>
+        <v>2.5</v>
       </c>
       <c r="F34" t="n">
-        <v>2.02</v>
+        <v>0.79</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2960,16 +2960,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.39</v>
+        <v>2.41</v>
       </c>
       <c r="K34" t="n">
-        <v>1.27</v>
+        <v>0.41</v>
       </c>
       <c r="L34" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="M34" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2989,16 +2989,16 @@
         <v>125</v>
       </c>
       <c r="D35" t="n">
-        <v>7.74</v>
+        <v>6.81</v>
       </c>
       <c r="E35" t="n">
-        <v>5.22</v>
+        <v>3.39</v>
       </c>
       <c r="F35" t="n">
-        <v>2.63</v>
+        <v>0.86</v>
       </c>
       <c r="G35" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.12</v>
+        <v>3.94</v>
       </c>
       <c r="K35" t="n">
-        <v>2.35</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7</v>
+        <v>0.13</v>
       </c>
       <c r="M35" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3036,16 +3036,16 @@
         <v>126</v>
       </c>
       <c r="D36" t="n">
-        <v>6.1</v>
+        <v>5.13</v>
       </c>
       <c r="E36" t="n">
-        <v>3.49</v>
+        <v>1.9</v>
       </c>
       <c r="F36" t="n">
-        <v>1.27</v>
+        <v>0.25</v>
       </c>
       <c r="G36" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3054,16 +3054,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.97</v>
+        <v>2.92</v>
       </c>
       <c r="K36" t="n">
-        <v>1.55</v>
+        <v>0.62</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3083,16 +3083,16 @@
         <v>127</v>
       </c>
       <c r="D37" t="n">
-        <v>2.46</v>
+        <v>1.55</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="F37" t="n">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="G37" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3101,16 +3101,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.74</v>
+        <v>0.67</v>
       </c>
       <c r="K37" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>128</v>
       </c>
       <c r="D38" t="n">
-        <v>2.13</v>
+        <v>0.61</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.09</v>
+        <v>0.48</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3177,16 +3177,16 @@
         <v>129</v>
       </c>
       <c r="D39" t="n">
-        <v>4.21</v>
+        <v>3.12</v>
       </c>
       <c r="E39" t="n">
-        <v>1.34</v>
+        <v>0.4</v>
       </c>
       <c r="F39" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.15</v>
+        <v>2.81</v>
       </c>
       <c r="K39" t="n">
-        <v>1.14</v>
+        <v>0.26</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3224,16 +3224,16 @@
         <v>130</v>
       </c>
       <c r="D40" t="n">
-        <v>5.16</v>
+        <v>4.48</v>
       </c>
       <c r="E40" t="n">
-        <v>3.25</v>
+        <v>2.07</v>
       </c>
       <c r="F40" t="n">
-        <v>1.47</v>
+        <v>0.46</v>
       </c>
       <c r="G40" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3242,16 +3242,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.32</v>
+        <v>2.46</v>
       </c>
       <c r="K40" t="n">
-        <v>1.28</v>
+        <v>0.47</v>
       </c>
       <c r="L40" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="M40" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3365,16 +3365,16 @@
         <v>133</v>
       </c>
       <c r="D43" t="n">
-        <v>7.75</v>
+        <v>6.83</v>
       </c>
       <c r="E43" t="n">
-        <v>5.31</v>
+        <v>3.73</v>
       </c>
       <c r="F43" t="n">
-        <v>3.05</v>
+        <v>1.44</v>
       </c>
       <c r="G43" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3383,16 +3383,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.63</v>
+        <v>4.56</v>
       </c>
       <c r="K43" t="n">
-        <v>3.28</v>
+        <v>2.02</v>
       </c>
       <c r="L43" t="n">
-        <v>1.67</v>
+        <v>0.68</v>
       </c>
       <c r="M43" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.85</v>
+        <v>0.45</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.57</v>
+        <v>0.46</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3994,16 +3994,16 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.72</v>
+        <v>0.6</v>
       </c>
       <c r="K56" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -4041,16 +4041,16 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>3.04</v>
+        <v>1.91</v>
       </c>
       <c r="K57" t="n">
-        <v>0.38</v>
+        <v>0.07</v>
       </c>
       <c r="L57" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -4070,16 +4070,16 @@
         <v>149</v>
       </c>
       <c r="D58" t="n">
-        <v>7.02</v>
+        <v>5.95</v>
       </c>
       <c r="E58" t="n">
-        <v>3.64</v>
+        <v>2.09</v>
       </c>
       <c r="F58" t="n">
-        <v>1.01</v>
+        <v>0.07</v>
       </c>
       <c r="G58" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4088,16 +4088,16 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3.39</v>
+        <v>2.06</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="L58" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.51</v>
+        <v>0.31</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>151</v>
       </c>
       <c r="D60" t="n">
-        <v>5.1</v>
+        <v>3.93</v>
       </c>
       <c r="E60" t="n">
-        <v>1.68</v>
+        <v>0.29</v>
       </c>
       <c r="F60" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>3.74</v>
+        <v>2.47</v>
       </c>
       <c r="K60" t="n">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="L60" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -4211,16 +4211,16 @@
         <v>152</v>
       </c>
       <c r="D61" t="n">
-        <v>4.39</v>
+        <v>3.38</v>
       </c>
       <c r="E61" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4229,16 +4229,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>4.05</v>
+        <v>2.97</v>
       </c>
       <c r="K61" t="n">
-        <v>0.71</v>
+        <v>0.11</v>
       </c>
       <c r="L61" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.84</v>
+        <v>0.57</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -4305,10 +4305,10 @@
         <v>154</v>
       </c>
       <c r="D63" t="n">
-        <v>5.23</v>
+        <v>3.87</v>
       </c>
       <c r="E63" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -4323,16 +4323,16 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.28</v>
+        <v>3.07</v>
       </c>
       <c r="K63" t="n">
-        <v>1.03</v>
+        <v>0.32</v>
       </c>
       <c r="L63" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="M63" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -4352,16 +4352,16 @@
         <v>155</v>
       </c>
       <c r="D64" t="n">
-        <v>1.88</v>
+        <v>0.9</v>
       </c>
       <c r="E64" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.82</v>
+        <v>0.7</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -4399,16 +4399,16 @@
         <v>156</v>
       </c>
       <c r="D65" t="n">
-        <v>2.57</v>
+        <v>1.31</v>
       </c>
       <c r="E65" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4417,16 +4417,16 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.23</v>
+        <v>1.08</v>
       </c>
       <c r="K65" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -4464,16 +4464,16 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.69</v>
+        <v>1.55</v>
       </c>
       <c r="K66" t="n">
-        <v>0.43</v>
+        <v>0.02</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -4493,16 +4493,16 @@
         <v>158</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>3.99</v>
       </c>
       <c r="E67" t="n">
-        <v>2.15</v>
+        <v>0.79</v>
       </c>
       <c r="F67" t="n">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="G67" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4511,16 +4511,16 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>4.02</v>
+        <v>2.68</v>
       </c>
       <c r="K67" t="n">
-        <v>0.74</v>
+        <v>0.11</v>
       </c>
       <c r="L67" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4558,16 +4558,16 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.01</v>
+        <v>0.91</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4634,16 +4634,16 @@
         <v>161</v>
       </c>
       <c r="D70" t="n">
-        <v>4.22</v>
+        <v>2.93</v>
       </c>
       <c r="E70" t="n">
-        <v>0.64</v>
+        <v>0.02</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4652,16 +4652,16 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3.08</v>
+        <v>1.65</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4681,16 +4681,16 @@
         <v>162</v>
       </c>
       <c r="D71" t="n">
-        <v>5.24</v>
+        <v>4.28</v>
       </c>
       <c r="E71" t="n">
-        <v>2.65</v>
+        <v>1.15</v>
       </c>
       <c r="F71" t="n">
-        <v>0.63</v>
+        <v>0.1</v>
       </c>
       <c r="G71" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4699,16 +4699,16 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>3.58</v>
+        <v>2.36</v>
       </c>
       <c r="K71" t="n">
-        <v>0.92</v>
+        <v>0.19</v>
       </c>
       <c r="L71" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4728,16 +4728,16 @@
         <v>163</v>
       </c>
       <c r="D72" t="n">
-        <v>3.01</v>
+        <v>2.23</v>
       </c>
       <c r="E72" t="n">
-        <v>1.15</v>
+        <v>0.24</v>
       </c>
       <c r="F72" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4746,16 +4746,16 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.01</v>
+        <v>1.03</v>
       </c>
       <c r="K72" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="L72" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4793,16 +4793,16 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.7</v>
+        <v>0.66</v>
       </c>
       <c r="K73" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>165</v>
       </c>
       <c r="D74" t="n">
-        <v>1.33</v>
+        <v>0.77</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4840,16 +4840,16 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>3.2</v>
+        <v>2.21</v>
       </c>
       <c r="K74" t="n">
-        <v>0.81</v>
+        <v>0.19</v>
       </c>
       <c r="L74" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4869,10 +4869,10 @@
         <v>166</v>
       </c>
       <c r="D75" t="n">
-        <v>3.01</v>
+        <v>1.92</v>
       </c>
       <c r="E75" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -4887,16 +4887,16 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3.03</v>
+        <v>1.82</v>
       </c>
       <c r="K75" t="n">
-        <v>0.47</v>
+        <v>0.01</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
